--- a/src/test/resources/Дз3.xlsx
+++ b/src/test/resources/Дз3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hollow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT_SCHOOL_2_0\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Класс</t>
   </si>
@@ -123,14 +123,90 @@
     <t>EmployeeCard</t>
   </si>
   <si>
-    <t>toString</t>
+    <t>Имя работника - Fedor1. Его возраст - 31 лет. Его зарплата - 16.0 в час. Пол - Женский</t>
+  </si>
+  <si>
+    <t>Имя работника - Fedor2. Его возраст - 32 лет. Его зарплата - 17.0 в час. Пол - Мужской</t>
+  </si>
+  <si>
+    <t>Имя работника - Fedor3. Его возраст - 33лет. Его зарплата - 18.0 в час. Пол - Женский</t>
+  </si>
+  <si>
+    <r>
+      <t>Имя работника - Fedor1. Его возраст - 31 лет. Его зарплата - 16.0 в час. Пол -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Женский</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Имя работника - Fedor2. Его возраст - 32 лет. Его зарплата - 17.0 в час. Пол -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Женский</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Имя работника - Fedor3. Его возраст - 33 лет. Его зарплата - 18.0 в час. Пол - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Женский</t>
+    </r>
+  </si>
+  <si>
+    <t>toString
+(public EmployeeCard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значения расчитываются в цикле for класса tEmployeeCard в методе testEmployeeCard:
+String name
+int age
+double salary
+boolean isWoman </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +224,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,36 +248,269 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,28 +794,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="40" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -502,173 +825,196 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="24">
         <v>31.5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="25">
         <v>31.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
